--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F966D8-8122-4979-99A2-AF6BF2361954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5CB38-8477-4743-AC02-B63088431346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -276,7 +276,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +630,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +678,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5CB38-8477-4743-AC02-B63088431346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DBE6A-913B-47A4-87E1-B72807E782E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="CRUD" sheetId="1" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="CRUD" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>CRUD</t>
   </si>
@@ -46,42 +45,21 @@
     <t>Implement a registration form for users to create accounts. Collect necessary information (e.g., username, email, password).</t>
   </si>
   <si>
-    <t>Display a list of available skincare products. Users can view product details, including images, descriptions, and prices.</t>
-  </si>
-  <si>
     <t>Enable users to search for specific products based on keywords or filters (e.g., category, price range).</t>
   </si>
   <si>
     <t>Users can view their own profiles, including order history and personal information.</t>
   </si>
   <si>
-    <t>Allow administrators to modify product details (e.g., update prices, change descriptions, upload new images).</t>
-  </si>
-  <si>
     <t>Users should be able to edit their profile information (e.g., change password, update shipping address).</t>
   </si>
   <si>
-    <t>Admins can remove products from the inventory.</t>
-  </si>
-  <si>
-    <t>Users can request account deletion or administrators can deactivate accounts.</t>
-  </si>
-  <si>
-    <t>User Account Deactivation</t>
-  </si>
-  <si>
     <t>Product Deletion</t>
   </si>
   <si>
-    <t>User Profile Updates</t>
-  </si>
-  <si>
     <t>Product Editing</t>
   </si>
   <si>
-    <t>User Profiles</t>
-  </si>
-  <si>
     <t>Product Search</t>
   </si>
   <si>
@@ -94,51 +72,186 @@
     <t>Product Creation</t>
   </si>
   <si>
-    <t>(C) Create</t>
-  </si>
-  <si>
-    <t>(R) Read</t>
-  </si>
-  <si>
-    <t>(U) Update</t>
-  </si>
-  <si>
-    <t>(D) Delete</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Allow administrators to add new skincare products to the website. 
-This involves specifying details such as product name, description, price, images, and category.</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Product Listing &amp; Search / Filter</t>
-  </si>
-  <si>
     <t>User Registration &amp; Profiling</t>
   </si>
   <si>
-    <t>Shopping Cart &amp; Checkout</t>
-  </si>
-  <si>
-    <t>Product Rating &amp; Review</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Product Listing &amp; Edit</t>
+  </si>
+  <si>
+    <t>Order Processing</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Update Order Status</t>
+  </si>
+  <si>
+    <t>Product Listing &amp; Search</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Delete Account</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Product List Viewing</t>
+  </si>
+  <si>
+    <t>See Customer Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Cart </t>
+  </si>
+  <si>
+    <t>Adjust products and quantity</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>View Cart</t>
+  </si>
+  <si>
+    <t>Delete Products in Cart</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Sub Process</t>
+  </si>
+  <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
+    <t>Check Out &amp; Make Order</t>
+  </si>
+  <si>
+    <t>View Order</t>
+  </si>
+  <si>
+    <t>Cancel an Order</t>
+  </si>
+  <si>
+    <t>Check Out &amp; Ordering</t>
+  </si>
+  <si>
+    <t>Product Rating &amp; Reviewing</t>
+  </si>
+  <si>
+    <t>View Reviews</t>
+  </si>
+  <si>
+    <t>Delete Reviews</t>
+  </si>
+  <si>
+    <t>Update Reviews</t>
+  </si>
+  <si>
+    <t>NR - Full Stack Web Development Project - Lumina, A Skin Care E-commerce Store - Features &amp; CRUD Process Mapping</t>
+  </si>
+  <si>
+    <t>Display a list of available skincare products. 
+Users can view product details, including images, descriptions, and prices.</t>
+  </si>
+  <si>
+    <t>Displays the contents of the user’s shopping cart.
+Shows a summary of selected products, quantities, prices, and the total cost.</t>
+  </si>
+  <si>
+    <t>Allows users to select a product and add it to their shopping cart.
+Typically involves specifying the product, quantity, and any relevant options (e.g., size, color).</t>
+  </si>
+  <si>
+    <t>Allows users to remove specific products from their cart.
+Useful when users change their minds or want to remove unwanted items.</t>
+  </si>
+  <si>
+    <t>Allows users to finalize their purchase by reviewing their selected items, providing shipping and payment details, and confirming the order.Initiates the process of creating an order in the system.</t>
+  </si>
+  <si>
+    <t>Displays details of a previously placed order, including product names, quantities, prices, shipping information, and order status. Helps users track their purchases and verify order accuracy.</t>
+  </si>
+  <si>
+    <t>Enables users to cancel an existing order before it is shipped or delivered.
+Typically involves updating the order status and potentially refunding the payment.</t>
+  </si>
+  <si>
+    <t>Users can request and do account deletion.</t>
+  </si>
+  <si>
+    <t>Create Reviews</t>
+  </si>
+  <si>
+    <t>Allows users to submit their feedback and ratings for a specific product.
+Users can write comments and assign a rating (e.g., stars) based on their experience.</t>
+  </si>
+  <si>
+    <t>Enables users to modify their previously submitted reviews.
+Users can edit their comments or change their ratings if their opinion changes over time.</t>
+  </si>
+  <si>
+    <t>Allows users to remove their own reviews from a product.
+Useful if a user wants to retract or update their feedback.</t>
+  </si>
+  <si>
+    <t>Admins can add new skincare products to the website. This involves specifying details such as product name, description, price, images, and category.</t>
+  </si>
+  <si>
+    <t>Admins can see the list of existing skincare products listed in the website and their details.</t>
+  </si>
+  <si>
+    <t>Admins can modify product details (e.g., update prices, change descriptions, upload new images).</t>
+  </si>
+  <si>
+    <t>Admins can remove products from the listing.</t>
+  </si>
+  <si>
+    <t>Displays aggregated reviews and ratings for a product. Helps potential buyers make informed decisions by showing the collective opinions of other users.</t>
+  </si>
+  <si>
+    <t>Allows the admin to view details of a specific customer’s order.
+Provides information such as ordered products, quantities, shipping address, and payment status.</t>
+  </si>
+  <si>
+    <t>Enables the admin to modify the status of an order (e.g., pending, shipped, delivered).
+Helps track the progress of orders and communicate updates to customers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +263,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,30 +288,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,65 +328,72 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,221 +733,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A15264-C32D-4EAD-B041-A428677453AD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199DB725-114C-457D-803B-1440B298B799}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199DB725-114C-457D-803B-1440B298B799}">
-  <dimension ref="B2:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9115E4-A012-4C5A-BC6F-EBC7ABD14DDB}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DBE6A-913B-47A4-87E1-B72807E782E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB20BDC-C42E-4407-A5A0-E213BA4C18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Pages" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>CRUD</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Admins can modify product details (e.g., update prices, change descriptions, upload new images).</t>
   </si>
   <si>
-    <t>Admins can remove products from the listing.</t>
-  </si>
-  <si>
     <t>Displays aggregated reviews and ratings for a product. Helps potential buyers make informed decisions by showing the collective opinions of other users.</t>
   </si>
   <si>
@@ -245,6 +242,84 @@
   <si>
     <t>Enables the admin to modify the status of an order (e.g., pending, shipped, delivered).
 Helps track the progress of orders and communicate updates to customers.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Out </t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Confirm Payment</t>
+  </si>
+  <si>
+    <t>Detail Product</t>
+  </si>
+  <si>
+    <t>Admins can delete products listing.</t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>Product Detail Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Product Listing </t>
+  </si>
+  <si>
+    <t>Customer Orders</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>All Product</t>
+  </si>
+  <si>
+    <t>Category Page</t>
+  </si>
+  <si>
+    <t>Search Result</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
   </si>
 </sst>
 </file>
@@ -273,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,10 +415,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,47 +431,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199DB725-114C-457D-803B-1440B298B799}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A15" zoomScale="134" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,416 +828,398 @@
     <col min="7" max="7" width="103.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="14" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="14" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
       <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="7">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15" t="s">
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="14" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="14" t="s">
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="7">
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="19">
         <v>5</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="14" t="s">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="14" t="s">
+      <c r="G17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14" t="s">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="7">
+      <c r="G23" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="19">
         <v>2</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C3:C6"/>
@@ -1171,12 +1230,6 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1185,12 +1238,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9115E4-A012-4C5A-BC6F-EBC7ABD14DDB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB20BDC-C42E-4407-A5A0-E213BA4C18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EE554-2F8D-4F22-8CB7-50E362F9CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
@@ -348,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -452,6 +458,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,8 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,13 +866,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -879,9 +886,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -893,9 +900,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
@@ -907,9 +914,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
@@ -921,11 +928,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="17">
+      <c r="B7" s="23"/>
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -939,9 +946,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -953,11 +960,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="19">
+      <c r="B9" s="23"/>
+      <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -971,9 +978,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
@@ -985,9 +992,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
@@ -999,9 +1006,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1013,11 +1020,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="17">
+      <c r="B13" s="23"/>
+      <c r="C13" s="19">
         <v>4</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1031,9 +1038,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1045,9 +1052,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1059,11 +1066,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="19">
+      <c r="B16" s="23"/>
+      <c r="C16" s="21">
         <v>5</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1077,9 +1084,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1091,9 +1098,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1105,9 +1112,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1119,13 +1126,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -1139,9 +1146,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1153,9 +1160,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1167,9 +1174,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1181,11 +1188,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19">
+      <c r="B24" s="18"/>
+      <c r="C24" s="21">
         <v>2</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1199,9 +1206,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1248,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1277,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7"/>
@@ -1280,7 +1287,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="7"/>
@@ -1306,7 +1313,7 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="15"/>
@@ -1316,7 +1323,7 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="7"/>
@@ -1406,7 +1413,7 @@
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="15"/>
@@ -1416,7 +1423,7 @@
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="15"/>
@@ -1426,7 +1433,7 @@
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="15"/>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EE554-2F8D-4F22-8CB7-50E362F9CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB5321-1CDD-45A4-AB0D-39EB84A6753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
     <sheet name="Pages" sheetId="3" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>CRUD</t>
   </si>
@@ -320,13 +321,67 @@
   </si>
   <si>
     <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Days Left</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Gold Challenge Submission Due Date</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Customer Page (My Cart, My Orders)</t>
+  </si>
+  <si>
+    <t>Product Detail Page</t>
+  </si>
+  <si>
+    <t>Login / Register Page</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Admin Page (Change Banner, Product List (Add, Delete), Order List, Change Password)</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>Back End</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Login and Register Process</t>
+  </si>
+  <si>
+    <t>Product List Process</t>
+  </si>
+  <si>
+    <t>Change Password Process</t>
+  </si>
+  <si>
+    <t>Check Out Process</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="ddd\,\ dd\-mmm\-yy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +401,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -392,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,11 +478,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -460,6 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,7 +553,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199DB725-114C-457D-803B-1440B298B799}">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="134" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D25"/>
+    <sheetView zoomScale="134" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,13 +959,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -886,9 +979,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -900,9 +993,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
@@ -914,9 +1007,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
@@ -928,11 +1021,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19">
+      <c r="B7" s="24"/>
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -946,9 +1039,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -960,11 +1053,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="21">
+      <c r="B9" s="24"/>
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -978,9 +1071,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
@@ -992,9 +1085,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1006,9 +1099,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1020,11 +1113,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="19">
+      <c r="B13" s="24"/>
+      <c r="C13" s="20">
         <v>4</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1038,9 +1131,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1052,9 +1145,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1066,11 +1159,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="21">
+      <c r="B16" s="24"/>
+      <c r="C16" s="22">
         <v>5</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1084,9 +1177,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1098,9 +1191,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1112,9 +1205,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1126,13 +1219,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -1146,9 +1239,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1160,9 +1253,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1174,9 +1267,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1188,11 +1281,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="21">
+      <c r="B24" s="19"/>
+      <c r="C24" s="22">
         <v>2</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1206,9 +1299,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9115E4-A012-4C5A-BC6F-EBC7ABD14DDB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1526,7 @@
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="15"/>
@@ -1502,4 +1595,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330AA3CD-A9E9-4B69-9E63-F60DA61ED8D5}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="25">
+        <f ca="1">TODAY()</f>
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="29">
+        <v>45403</v>
+      </c>
+      <c r="E3" s="28">
+        <f ca="1">D3-$G$1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="29">
+        <v>45403</v>
+      </c>
+      <c r="E4" s="28">
+        <f ca="1">D4-$G$1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="29">
+        <f>D4+4</f>
+        <v>45407</v>
+      </c>
+      <c r="E5" s="28">
+        <f ca="1">D5-$G$1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="29">
+        <f>D5+10</f>
+        <v>45417</v>
+      </c>
+      <c r="E6" s="28">
+        <f ca="1">D6-$G$1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="29">
+        <f>D6+5</f>
+        <v>45422</v>
+      </c>
+      <c r="E7" s="28">
+        <f ca="1">D7-$G$1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="29">
+        <f>D7+10</f>
+        <v>45432</v>
+      </c>
+      <c r="E8" s="28">
+        <f ca="1">D8-$G$1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="29">
+        <f>D8+2</f>
+        <v>45434</v>
+      </c>
+      <c r="E9" s="28">
+        <f ca="1">D9-$G$1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="29">
+        <f>D9+10</f>
+        <v>45444</v>
+      </c>
+      <c r="E10" s="28">
+        <f ca="1">D10-$G$1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="29">
+        <f>D10+10</f>
+        <v>45454</v>
+      </c>
+      <c r="E11" s="28">
+        <f ca="1">D11-$G$1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>12</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="29">
+        <v>45446</v>
+      </c>
+      <c r="E12" s="28">
+        <f ca="1">D12-$G$1</f>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB5321-1CDD-45A4-AB0D-39EB84A6753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6597212-ACBA-432D-A667-AFCE690ECC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>CRUD</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="ddd\,\ dd\-mmm\-yy"/>
+    <numFmt numFmtId="164" formatCode="ddd\,\ dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -493,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,24 +538,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,14 +548,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,13 +965,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -979,9 +985,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -993,9 +999,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1007,9 +1013,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1021,11 +1027,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="20">
+      <c r="B7" s="31"/>
+      <c r="C7" s="27">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1039,9 +1045,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -1053,11 +1059,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="22">
+      <c r="B9" s="31"/>
+      <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1071,9 +1077,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1085,9 +1091,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1099,9 +1105,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1113,11 +1119,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="20">
+      <c r="B13" s="31"/>
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1131,9 +1137,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1145,9 +1151,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1159,11 +1165,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="22">
+      <c r="B16" s="31"/>
+      <c r="C16" s="29">
         <v>5</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1177,9 +1183,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1191,9 +1197,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1205,9 +1211,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1219,13 +1225,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="27">
         <v>1</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -1239,9 +1245,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1253,9 +1259,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1267,9 +1273,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1281,11 +1287,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="22">
+      <c r="B24" s="26"/>
+      <c r="C24" s="29">
         <v>2</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1299,9 +1305,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1608,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,213 +1623,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G1" s="25">
+      <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45401</v>
+        <v>45425</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="29">
-        <v>45403</v>
-      </c>
-      <c r="E3" s="28">
-        <f ca="1">D3-$G$1</f>
+      <c r="D3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="B4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="23">
+        <v>45427</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" ref="E3:E12" ca="1" si="0">D5-$G$1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="29">
-        <v>45403</v>
-      </c>
-      <c r="E4" s="28">
-        <f ca="1">D4-$G$1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="23">
+        <f>D5+2</f>
+        <v>45429</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="29">
-        <f>D4+4</f>
-        <v>45407</v>
-      </c>
-      <c r="E5" s="28">
-        <f ca="1">D5-$G$1</f>
+      <c r="C7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="23">
+        <f>D6</f>
+        <v>45429</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="29">
-        <f>D5+10</f>
-        <v>45417</v>
-      </c>
-      <c r="E6" s="28">
-        <f ca="1">D6-$G$1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="29">
-        <f>D6+5</f>
-        <v>45422</v>
-      </c>
-      <c r="E7" s="28">
-        <f ca="1">D7-$G$1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="B8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="23">
+        <v>45431</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="29">
-        <f>D7+10</f>
-        <v>45432</v>
-      </c>
-      <c r="E8" s="28">
-        <f ca="1">D8-$G$1</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="23">
+        <f>D8</f>
+        <v>45431</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="29">
-        <f>D8+2</f>
-        <v>45434</v>
-      </c>
-      <c r="E9" s="28">
-        <f ca="1">D9-$G$1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="23">
+        <f>D9+5</f>
+        <v>45436</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="29">
-        <f>D9+10</f>
-        <v>45444</v>
-      </c>
-      <c r="E10" s="28">
-        <f ca="1">D10-$G$1</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="29">
-        <f>D10+10</f>
-        <v>45454</v>
-      </c>
-      <c r="E11" s="28">
-        <f ca="1">D11-$G$1</f>
-        <v>53</v>
+      <c r="D11" s="23">
+        <f>D10+3</f>
+        <v>45439</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="22">
         <v>12</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="29">
-        <v>45446</v>
-      </c>
-      <c r="E12" s="28">
-        <f ca="1">D12-$G$1</f>
-        <v>45</v>
+      <c r="D12" s="23">
+        <v>45445</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6597212-ACBA-432D-A667-AFCE690ECC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2081F-FE9E-4191-AA89-0A0B0D61DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -557,6 +557,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,9 +576,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,13 +965,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -985,9 +985,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -999,9 +999,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1013,9 +1013,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1027,11 +1027,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="27">
+      <c r="B7" s="32"/>
+      <c r="C7" s="28">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1045,9 +1045,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -1059,11 +1059,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="29">
+      <c r="B9" s="32"/>
+      <c r="C9" s="30">
         <v>3</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="29" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1077,9 +1077,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1091,9 +1091,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1105,9 +1105,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1119,11 +1119,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="27">
+      <c r="B13" s="32"/>
+      <c r="C13" s="28">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1137,9 +1137,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1151,9 +1151,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1165,11 +1165,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="29">
+      <c r="B16" s="32"/>
+      <c r="C16" s="30">
         <v>5</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1183,9 +1183,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1197,9 +1197,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1211,9 +1211,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1225,13 +1225,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="28">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -1245,9 +1245,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1259,9 +1259,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1273,9 +1273,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1287,11 +1287,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="29">
+      <c r="B24" s="27"/>
+      <c r="C24" s="30">
         <v>2</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1305,9 +1305,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1625,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45425</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
       <c r="C3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="22"/>
@@ -1670,7 +1670,7 @@
       <c r="C4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="22"/>
@@ -1689,8 +1689,8 @@
         <v>45427</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" ref="E3:E12" ca="1" si="0">D5-$G$1</f>
-        <v>2</v>
+        <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2081F-FE9E-4191-AA89-0A0B0D61DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B044411-EE97-4725-A04D-23E1686BE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-3150" yWindow="-20040" windowWidth="13830" windowHeight="15435" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
     <sheet name="Pages" sheetId="3" r:id="rId2"/>
     <sheet name="Timeline" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>CRUD</t>
   </si>
@@ -375,16 +376,175 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>SKINTIFIC</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Image link</t>
+  </si>
+  <si>
+    <t>5X Ceramide Barrier Moisture Gel</t>
+  </si>
+  <si>
+    <t>MSH Niacinamide Brightening Moisture Gel</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>product-image-3.png</t>
+  </si>
+  <si>
+    <t>product-image-2.jpg</t>
+  </si>
+  <si>
+    <t>product-image-1.png</t>
+  </si>
+  <si>
+    <t>Cover All Perfect Cushion</t>
+  </si>
+  <si>
+    <t>5X Ceramide Serum Sunscreen</t>
+  </si>
+  <si>
+    <t>product-image-4.png</t>
+  </si>
+  <si>
+    <t>Alaska Volcano Pore Clay Stick</t>
+  </si>
+  <si>
+    <t>product-image-5.png</t>
+  </si>
+  <si>
+    <t>REFILL Cover All Perfect Cushion</t>
+  </si>
+  <si>
+    <t>Mugwort Acne Clay Stick</t>
+  </si>
+  <si>
+    <t>5% Panthenol Acne Calming Water Gel</t>
+  </si>
+  <si>
+    <t>product-image-6.png</t>
+  </si>
+  <si>
+    <t>product-image-7.png</t>
+  </si>
+  <si>
+    <t>product-image-8.png</t>
+  </si>
+  <si>
+    <t>product-image-9.png</t>
+  </si>
+  <si>
+    <t>product-image-10.png</t>
+  </si>
+  <si>
+    <t>product-image-11.png</t>
+  </si>
+  <si>
+    <t>product-image-12.png</t>
+  </si>
+  <si>
+    <t>product-image-13.png</t>
+  </si>
+  <si>
+    <t>product-image-14.png</t>
+  </si>
+  <si>
+    <t>product-image-15.png</t>
+  </si>
+  <si>
+    <r>
+      <t>product-image-16</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>png</t>
+    </r>
+  </si>
+  <si>
+    <t>Cushion Set</t>
+  </si>
+  <si>
+    <t>Brightening Booster Set</t>
+  </si>
+  <si>
+    <t>Niacinamide Brightening Essence Toner</t>
+  </si>
+  <si>
+    <t>Glycolic Acid Daily Clarifying Toner</t>
+  </si>
+  <si>
+    <t>Truffle Biome Skin Reborn Cream Gel Moisturizer</t>
+  </si>
+  <si>
+    <t>5X Ceramide Barrier Repair Moisturizer Gel</t>
+  </si>
+  <si>
+    <t>5X Ceramide Soothing Toner</t>
+  </si>
+  <si>
+    <t>All Day Light Sunscreen Mist SPF 50 PA++++</t>
+  </si>
+  <si>
+    <t>product-image-17.png</t>
+  </si>
+  <si>
+    <t>product-image-18.png</t>
+  </si>
+  <si>
+    <t>product-image-19.png</t>
+  </si>
+  <si>
+    <t>product-image-20.png</t>
+  </si>
+  <si>
+    <t>10% Vitamin C Brightening Glow Serum</t>
+  </si>
+  <si>
+    <t>Aqua Light Daily Sunscreen SPF 35 PA +++</t>
+  </si>
+  <si>
+    <t>Symwhite 377 Dark Spot Moisture Gel</t>
+  </si>
+  <si>
+    <t>SymWhite377 Dark Spot Eraser Serum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="ddd\,\ dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +569,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,10 +666,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,8 +752,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1607,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330AA3CD-A9E9-4B69-9E63-F60DA61ED8D5}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1807,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45429</v>
+        <v>45441</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,7 +1872,7 @@
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
-        <v>-2</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1709,7 +1891,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,7 +1910,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,7 +1928,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,7 +1947,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,7 +1966,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1985,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,11 +2003,420 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12046E1E-CBB6-4EE1-95F2-4FF87B6AE4C6}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="34">
+        <v>121000</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="34">
+        <v>135000</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="34">
+        <v>180000</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="34">
+        <v>52000</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="34">
+        <v>86000</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="34">
+        <v>133000</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="34">
+        <v>87000</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="34">
+        <v>148000</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="34">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="34">
+        <v>321000</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="34">
+        <v>74000</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="34">
+        <v>130000</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="34">
+        <v>34000</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="34">
+        <v>115000</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="34">
+        <v>290000</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="34">
+        <v>39000</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="36">
+        <v>143000</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="36">
+        <v>88000</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="36">
+        <v>138000</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="36">
+        <v>131000</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B044411-EE97-4725-A04D-23E1686BE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14016AF0-377D-45B7-BECE-E2C50F379944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3150" yWindow="-20040" windowWidth="13830" windowHeight="15435" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -734,6 +734,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,13 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,13 +1147,13 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1167,9 +1167,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1181,9 +1181,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
@@ -1195,9 +1195,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1209,11 +1209,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="28">
+      <c r="B7" s="37"/>
+      <c r="C7" s="33">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1227,9 +1227,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -1241,11 +1241,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="30">
+      <c r="B9" s="37"/>
+      <c r="C9" s="35">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1259,9 +1259,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1273,9 +1273,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1287,9 +1287,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1301,11 +1301,11 @@
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="28">
+      <c r="B13" s="37"/>
+      <c r="C13" s="33">
         <v>4</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1319,9 +1319,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
@@ -1333,9 +1333,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
@@ -1347,11 +1347,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="30">
+      <c r="B16" s="37"/>
+      <c r="C16" s="35">
         <v>5</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1365,9 +1365,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1379,9 +1379,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1393,9 +1393,9 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1407,13 +1407,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="33">
         <v>1</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -1427,9 +1427,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1441,9 +1441,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1455,9 +1455,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1469,11 +1469,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="30">
+      <c r="B24" s="32"/>
+      <c r="C24" s="35">
         <v>2</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -1487,9 +1487,9 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1807,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45441</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,19 +2029,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="31" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       <c r="C2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="28">
         <v>121000</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2072,7 +2072,7 @@
       <c r="C3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="28">
         <v>135000</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -2089,7 +2089,7 @@
       <c r="C4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="28">
         <v>180000</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -2106,7 +2106,7 @@
       <c r="C5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="28">
         <v>52000</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2123,7 +2123,7 @@
       <c r="C6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="28">
         <v>86000</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2140,7 +2140,7 @@
       <c r="C7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="28">
         <v>133000</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2157,7 +2157,7 @@
       <c r="C8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="28">
         <v>87000</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2174,7 +2174,7 @@
       <c r="C9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <v>148000</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2191,7 +2191,7 @@
       <c r="C10" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <v>40000</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2208,7 +2208,7 @@
       <c r="C11" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="28">
         <v>321000</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2225,7 +2225,7 @@
       <c r="C12" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="28">
         <v>74000</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2242,7 +2242,7 @@
       <c r="C13" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="28">
         <v>130000</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2259,7 +2259,7 @@
       <c r="C14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="28">
         <v>34000</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -2276,7 +2276,7 @@
       <c r="C15" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="28">
         <v>115000</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2293,7 +2293,7 @@
       <c r="C16" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="28">
         <v>290000</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2310,7 +2310,7 @@
       <c r="C17" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="28">
         <v>39000</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2318,102 +2318,102 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="30">
         <v>143000</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="30">
         <v>88000</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="30">
         <v>138000</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="30">
         <v>131000</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="33"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="33"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="33"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="33"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="33"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="33"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="33"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="33"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="33"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
+      <c r="D31" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14016AF0-377D-45B7-BECE-E2C50F379944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD3A6B-72BE-4456-B951-E2CBBE079FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
@@ -1807,7 +1807,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45442</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD3A6B-72BE-4456-B951-E2CBBE079FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB748CBB-1146-4082-975E-FE8141662E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-4830" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -1807,7 +1807,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45443</v>
+        <v>45444</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Working Paper Project.xlsx
+++ b/docs/Working Paper Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Challenge Gold\24001107-44-Nir-namaproject-ChallengeGold\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB748CBB-1146-4082-975E-FE8141662E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2CA51D-C0DE-4541-BEC6-D7BA35371C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4830" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
+    <workbookView xWindow="-75" yWindow="45" windowWidth="15300" windowHeight="15435" activeTab="3" xr2:uid="{30945680-93E9-4D10-B37F-7B744EE4DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="166">
   <si>
     <t>CRUD</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Mugwort Acne Clay Stick</t>
   </si>
   <si>
-    <t>5% Panthenol Acne Calming Water Gel</t>
-  </si>
-  <si>
     <t>product-image-6.png</t>
   </si>
   <si>
@@ -441,18 +438,6 @@
     <t>product-image-8.png</t>
   </si>
   <si>
-    <t>product-image-9.png</t>
-  </si>
-  <si>
-    <t>product-image-10.png</t>
-  </si>
-  <si>
-    <t>product-image-11.png</t>
-  </si>
-  <si>
-    <t>product-image-12.png</t>
-  </si>
-  <si>
     <t>product-image-13.png</t>
   </si>
   <si>
@@ -462,56 +447,9 @@
     <t>product-image-15.png</t>
   </si>
   <si>
-    <r>
-      <t>product-image-16</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>png</t>
-    </r>
-  </si>
-  <si>
-    <t>Cushion Set</t>
-  </si>
-  <si>
-    <t>Brightening Booster Set</t>
-  </si>
-  <si>
-    <t>Niacinamide Brightening Essence Toner</t>
-  </si>
-  <si>
-    <t>Glycolic Acid Daily Clarifying Toner</t>
-  </si>
-  <si>
     <t>Truffle Biome Skin Reborn Cream Gel Moisturizer</t>
   </si>
   <si>
-    <t>5X Ceramide Barrier Repair Moisturizer Gel</t>
-  </si>
-  <si>
-    <t>5X Ceramide Soothing Toner</t>
-  </si>
-  <si>
-    <t>All Day Light Sunscreen Mist SPF 50 PA++++</t>
-  </si>
-  <si>
     <t>product-image-17.png</t>
   </si>
   <si>
@@ -533,7 +471,82 @@
     <t>Symwhite 377 Dark Spot Moisture Gel</t>
   </si>
   <si>
-    <t>SymWhite377 Dark Spot Eraser Serum</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>product-image-24.png</t>
+  </si>
+  <si>
+    <t>product-image-21.png</t>
+  </si>
+  <si>
+    <t>product-image-23.png</t>
+  </si>
+  <si>
+    <t>Salicylic Acid Daily Gentle Cleanser</t>
+  </si>
+  <si>
+    <t>CORSX</t>
+  </si>
+  <si>
+    <t>AZARINE</t>
+  </si>
+  <si>
+    <t>product-image-16.png</t>
+  </si>
+  <si>
+    <t>product-image-9.jpg</t>
+  </si>
+  <si>
+    <t>product-image-10.jpg</t>
+  </si>
+  <si>
+    <t>product-image-11.jpg</t>
+  </si>
+  <si>
+    <t>product-image-12.jpg</t>
+  </si>
+  <si>
+    <t>AHA/BHA Clarifying Treatment Toner</t>
+  </si>
+  <si>
+    <t>Advanced Snail Mucin 96 Power Essence</t>
+  </si>
+  <si>
+    <t>Hyaluronic Acid Intensive Cream</t>
+  </si>
+  <si>
+    <t>Skinfit Essence Toner</t>
+  </si>
+  <si>
+    <t>Vitamin Lab Instant Glow Peel Off Nail Polish</t>
+  </si>
+  <si>
+    <t>Bodyguard Moisturiser Sunscreen Serum Magical Luv</t>
+  </si>
+  <si>
+    <t>Bodyguard Moisturiser Sunscreen Serum Sun O'Clock</t>
+  </si>
+  <si>
+    <t>Aloe Soothing Sun Cream SPF 50+ PA+++</t>
+  </si>
+  <si>
+    <t>COSRX</t>
+  </si>
+  <si>
+    <t>Acne Spot Serum</t>
+  </si>
+  <si>
+    <t>product-image-22.jpg</t>
+  </si>
+  <si>
+    <t>Pure Fit Cica Cleanser</t>
+  </si>
+  <si>
+    <t>Hydracool Ceraspray Sunscreen SPF50 PA+++</t>
+  </si>
+  <si>
+    <t>SymWhite 377 Dark Spot Eraser Serum</t>
   </si>
 </sst>
 </file>
@@ -670,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -759,6 +772,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1807,7 +1821,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45444</v>
+        <v>45445</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1886,7 @@
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E12" ca="1" si="0">D5-$G$1</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1905,7 @@
       </c>
       <c r="E6" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1910,7 +1924,7 @@
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1942,7 @@
       </c>
       <c r="E8" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1947,7 +1961,7 @@
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1980,7 @@
       </c>
       <c r="E10" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,7 +1999,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,7 +2017,7 @@
       </c>
       <c r="E12" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2014,21 +2028,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12046E1E-CBB6-4EE1-95F2-4FF87B6AE4C6}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
@@ -2039,13 +2054,16 @@
         <v>110</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2055,14 +2073,17 @@
       <c r="C2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="15">
+        <v>10</v>
+      </c>
+      <c r="E2" s="28">
         <v>121000</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2072,14 +2093,17 @@
       <c r="C3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="15">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28">
         <v>135000</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2089,14 +2113,17 @@
       <c r="C4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="15">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28">
         <v>180000</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2106,14 +2133,17 @@
       <c r="C5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="15">
+        <v>15</v>
+      </c>
+      <c r="E5" s="28">
         <v>52000</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2123,14 +2153,17 @@
       <c r="C6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="15">
+        <v>8</v>
+      </c>
+      <c r="E6" s="28">
         <v>86000</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2140,14 +2173,17 @@
       <c r="C7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="15">
+        <v>11</v>
+      </c>
+      <c r="E7" s="28">
         <v>133000</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2157,14 +2193,17 @@
       <c r="C8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28">
         <v>87000</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2172,152 +2211,179 @@
         <v>109</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="28">
+        <v>132</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
         <v>148000</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="28">
-        <v>40000</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="15">
+        <v>17</v>
+      </c>
+      <c r="E10" s="28">
+        <v>116000</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>109</v>
+      <c r="B11" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="28">
-        <v>321000</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6</v>
+      </c>
+      <c r="E11" s="28">
+        <v>224000</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>109</v>
+      <c r="B12" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="28">
-        <v>74000</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="28">
+        <v>206000</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>109</v>
+      <c r="B13" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="28">
-        <v>130000</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="D13" s="15">
+        <v>13</v>
+      </c>
+      <c r="E13" s="28">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>109</v>
+      <c r="B14" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="28">
-        <v>34000</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="28">
+        <v>40000</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>109</v>
+      <c r="B15" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="28">
-        <v>115000</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="28">
+        <v>65000</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>109</v>
+      <c r="B16" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="28">
-        <v>290000</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="28">
+        <v>65000</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>109</v>
+      <c r="B17" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="28">
-        <v>39000</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D17" s="15">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28">
+        <v>35000</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -2325,16 +2391,19 @@
         <v>109</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="30">
+        <v>137</v>
+      </c>
+      <c r="D18" s="29">
+        <v>7</v>
+      </c>
+      <c r="E18" s="30">
         <v>143000</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -2342,16 +2411,19 @@
         <v>109</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="30">
+        <v>138</v>
+      </c>
+      <c r="D19" s="29">
+        <v>10</v>
+      </c>
+      <c r="E19" s="30">
         <v>88000</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -2359,16 +2431,19 @@
         <v>109</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="30">
+        <v>139</v>
+      </c>
+      <c r="D20" s="29">
+        <v>5</v>
+      </c>
+      <c r="E20" s="30">
         <v>138000</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -2376,44 +2451,103 @@
         <v>109</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="30">
+        <v>165</v>
+      </c>
+      <c r="D21" s="29">
+        <v>5</v>
+      </c>
+      <c r="E21" s="30">
         <v>131000</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="27"/>
+      <c r="F21" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2</v>
+      </c>
+      <c r="E22" s="30">
+        <v>174000</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="29">
+        <v>5</v>
+      </c>
+      <c r="E23" s="30">
+        <v>149000</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="29">
+        <v>7</v>
+      </c>
+      <c r="E24" s="30">
+        <v>65000</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="29">
+        <v>13</v>
+      </c>
+      <c r="E25" s="30">
+        <v>25000</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
